--- a/dataset/iris.xlsx
+++ b/dataset/iris.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="14630" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -35,32 +35,368 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -83,21 +419,321 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -380,32 +1016,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="4" max="5" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -419,10 +1060,10 @@
       <c r="C2">
         <v>1.4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -436,10 +1077,10 @@
       <c r="C3">
         <v>1.4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -453,10 +1094,10 @@
       <c r="C4">
         <v>1.3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
@@ -470,10 +1111,10 @@
       <c r="C5">
         <v>1.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -487,10 +1128,10 @@
       <c r="C6">
         <v>1.4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
     </row>
@@ -504,10 +1145,10 @@
       <c r="C7">
         <v>1.7</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -521,10 +1162,10 @@
       <c r="C8">
         <v>1.4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -538,10 +1179,10 @@
       <c r="C9">
         <v>1.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -555,10 +1196,10 @@
       <c r="C10">
         <v>1.4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -572,10 +1213,10 @@
       <c r="C11">
         <v>1.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -589,10 +1230,10 @@
       <c r="C12">
         <v>1.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -606,10 +1247,10 @@
       <c r="C13">
         <v>1.6</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
@@ -623,10 +1264,10 @@
       <c r="C14">
         <v>1.4</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -640,10 +1281,10 @@
       <c r="C15">
         <v>1.1</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.1</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -657,10 +1298,10 @@
       <c r="C16">
         <v>1.2</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -674,10 +1315,10 @@
       <c r="C17">
         <v>1.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0</v>
       </c>
     </row>
@@ -691,10 +1332,10 @@
       <c r="C18">
         <v>1.3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -708,10 +1349,10 @@
       <c r="C19">
         <v>1.4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>0.3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -725,10 +1366,10 @@
       <c r="C20">
         <v>1.7</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -742,10 +1383,10 @@
       <c r="C21">
         <v>1.5</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -759,10 +1400,10 @@
       <c r="C22">
         <v>1.7</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -776,10 +1417,10 @@
       <c r="C23">
         <v>1.5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0</v>
       </c>
     </row>
@@ -793,10 +1434,10 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -810,10 +1451,10 @@
       <c r="C25">
         <v>1.7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.5</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -827,10 +1468,10 @@
       <c r="C26">
         <v>1.9</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -844,10 +1485,10 @@
       <c r="C27">
         <v>1.6</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>0.2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -861,10 +1502,10 @@
       <c r="C28">
         <v>1.6</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.4</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -878,10 +1519,10 @@
       <c r="C29">
         <v>1.5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -895,10 +1536,10 @@
       <c r="C30">
         <v>1.4</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.2</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -912,10 +1553,10 @@
       <c r="C31">
         <v>1.6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0.2</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -929,10 +1570,10 @@
       <c r="C32">
         <v>1.6</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>0.2</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0</v>
       </c>
     </row>
@@ -946,10 +1587,10 @@
       <c r="C33">
         <v>1.5</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.4</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -963,10 +1604,10 @@
       <c r="C34">
         <v>1.5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0.1</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -980,10 +1621,10 @@
       <c r="C35">
         <v>1.4</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0.2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>0</v>
       </c>
     </row>
@@ -997,10 +1638,10 @@
       <c r="C36">
         <v>1.5</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0.2</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1014,10 +1655,10 @@
       <c r="C37">
         <v>1.2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0.2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1031,10 +1672,10 @@
       <c r="C38">
         <v>1.3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.2</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1048,10 +1689,10 @@
       <c r="C39">
         <v>1.4</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>0.1</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1706,10 @@
       <c r="C40">
         <v>1.3</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>0.2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1082,10 +1723,10 @@
       <c r="C41">
         <v>1.5</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>0.2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1099,10 +1740,10 @@
       <c r="C42">
         <v>1.3</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>0.3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1116,10 +1757,10 @@
       <c r="C43">
         <v>1.3</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>0.3</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1133,10 +1774,10 @@
       <c r="C44">
         <v>1.3</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>0.2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1150,10 +1791,10 @@
       <c r="C45">
         <v>1.6</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>0.6</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1167,10 +1808,10 @@
       <c r="C46">
         <v>1.9</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>0.4</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1184,10 +1825,10 @@
       <c r="C47">
         <v>1.4</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>0.3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1201,10 +1842,10 @@
       <c r="C48">
         <v>1.6</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>0.2</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1218,10 +1859,10 @@
       <c r="C49">
         <v>1.4</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>0.2</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1235,10 +1876,10 @@
       <c r="C50">
         <v>1.5</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>0.2</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1252,10 +1893,10 @@
       <c r="C51">
         <v>1.4</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>0.2</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1269,10 +1910,10 @@
       <c r="C52">
         <v>4.7</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>1.4</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1286,10 +1927,10 @@
       <c r="C53">
         <v>4.5</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>1.5</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1303,10 +1944,10 @@
       <c r="C54">
         <v>4.9</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>1.5</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1320,10 +1961,10 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>1.3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1337,10 +1978,10 @@
       <c r="C56">
         <v>4.6</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>1.5</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1354,10 +1995,10 @@
       <c r="C57">
         <v>4.5</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>1.3</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1371,10 +2012,10 @@
       <c r="C58">
         <v>4.7</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>1.6</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1388,10 +2029,10 @@
       <c r="C59">
         <v>3.3</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="1">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1405,10 +2046,10 @@
       <c r="C60">
         <v>4.6</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>1.3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1422,10 +2063,10 @@
       <c r="C61">
         <v>3.9</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>1.4</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1439,10 +2080,10 @@
       <c r="C62">
         <v>3.5</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="1">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1456,10 +2097,10 @@
       <c r="C63">
         <v>4.2</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>1.5</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1473,10 +2114,10 @@
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1490,10 +2131,10 @@
       <c r="C65">
         <v>4.7</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>1.4</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1507,10 +2148,10 @@
       <c r="C66">
         <v>3.6</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>1.3</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1524,10 +2165,10 @@
       <c r="C67">
         <v>4.4</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>1.4</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1541,10 +2182,10 @@
       <c r="C68">
         <v>4.5</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>1.5</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1558,10 +2199,10 @@
       <c r="C69">
         <v>4.1</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="1">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1575,10 +2216,10 @@
       <c r="C70">
         <v>4.5</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>1.5</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1592,10 +2233,10 @@
       <c r="C71">
         <v>3.9</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>1.1</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1609,10 +2250,10 @@
       <c r="C72">
         <v>4.8</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>1.8</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1626,10 +2267,10 @@
       <c r="C73">
         <v>4</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>1.3</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1643,10 +2284,10 @@
       <c r="C74">
         <v>4.9</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>1.5</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1660,10 +2301,10 @@
       <c r="C75">
         <v>4.7</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>1.2</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1677,10 +2318,10 @@
       <c r="C76">
         <v>4.3</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>1.3</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1694,10 +2335,10 @@
       <c r="C77">
         <v>4.4</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>1.4</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1711,10 +2352,10 @@
       <c r="C78">
         <v>4.8</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>1.4</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1728,10 +2369,10 @@
       <c r="C79">
         <v>5</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>1.7</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1745,10 +2386,10 @@
       <c r="C80">
         <v>4.5</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>1.5</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1762,10 +2403,10 @@
       <c r="C81">
         <v>3.5</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
+      <c r="D81" s="1">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1779,10 +2420,10 @@
       <c r="C82">
         <v>3.8</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>1.1</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1796,10 +2437,10 @@
       <c r="C83">
         <v>3.7</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1813,10 +2454,10 @@
       <c r="C84">
         <v>3.9</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>1.2</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1830,10 +2471,10 @@
       <c r="C85">
         <v>5.1</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>1.6</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1847,10 +2488,10 @@
       <c r="C86">
         <v>4.5</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>1.5</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1864,10 +2505,10 @@
       <c r="C87">
         <v>4.5</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>1.6</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1881,10 +2522,10 @@
       <c r="C88">
         <v>4.7</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>1.5</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1898,10 +2539,10 @@
       <c r="C89">
         <v>4.4</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>1.3</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1915,10 +2556,10 @@
       <c r="C90">
         <v>4.1</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>1.3</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1932,10 +2573,10 @@
       <c r="C91">
         <v>4</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>1.3</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1949,10 +2590,10 @@
       <c r="C92">
         <v>4.4</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>1.2</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1966,10 +2607,10 @@
       <c r="C93">
         <v>4.6</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>1.4</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1983,10 +2624,10 @@
       <c r="C94">
         <v>4</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>1.2</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2000,10 +2641,10 @@
       <c r="C95">
         <v>3.3</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2017,10 +2658,10 @@
       <c r="C96">
         <v>4.2</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>1.3</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2034,10 +2675,10 @@
       <c r="C97">
         <v>4.2</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>1.2</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2051,10 +2692,10 @@
       <c r="C98">
         <v>4.2</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>1.3</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2068,10 +2709,10 @@
       <c r="C99">
         <v>4.3</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>1.3</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2085,10 +2726,10 @@
       <c r="C100">
         <v>3</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>1.1</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2102,10 +2743,10 @@
       <c r="C101">
         <v>4.1</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>1.3</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2119,10 +2760,10 @@
       <c r="C102">
         <v>6</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>2.5</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2136,10 +2777,10 @@
       <c r="C103">
         <v>5.1</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>1.9</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2153,10 +2794,10 @@
       <c r="C104">
         <v>5.9</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>2.1</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2170,10 +2811,10 @@
       <c r="C105">
         <v>5.6</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>1.8</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2187,10 +2828,10 @@
       <c r="C106">
         <v>5.8</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>2.2</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2204,10 +2845,10 @@
       <c r="C107">
         <v>6.6</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>2.1</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2221,10 +2862,10 @@
       <c r="C108">
         <v>4.5</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>1.7</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2238,10 +2879,10 @@
       <c r="C109">
         <v>6.3</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>1.8</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2255,10 +2896,10 @@
       <c r="C110">
         <v>5.8</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>1.8</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2272,10 +2913,10 @@
       <c r="C111">
         <v>6.1</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>2.5</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2289,10 +2930,10 @@
       <c r="C112">
         <v>5.1</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
+      <c r="D112" s="1">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2306,10 +2947,10 @@
       <c r="C113">
         <v>5.3</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>1.9</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2323,10 +2964,10 @@
       <c r="C114">
         <v>5.5</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>2.1</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2340,10 +2981,10 @@
       <c r="C115">
         <v>5</v>
       </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-      <c r="E115">
+      <c r="D115" s="1">
+        <v>2</v>
+      </c>
+      <c r="E115" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2357,10 +2998,10 @@
       <c r="C116">
         <v>5.1</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>2.4</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2374,10 +3015,10 @@
       <c r="C117">
         <v>5.3</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>2.3</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2391,10 +3032,10 @@
       <c r="C118">
         <v>5.5</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>1.8</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2408,10 +3049,10 @@
       <c r="C119">
         <v>6.7</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>2.2</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2425,10 +3066,10 @@
       <c r="C120">
         <v>6.9</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>2.3</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2442,10 +3083,10 @@
       <c r="C121">
         <v>5</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>1.5</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2459,10 +3100,10 @@
       <c r="C122">
         <v>5.7</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>2.3</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2476,10 +3117,10 @@
       <c r="C123">
         <v>4.9</v>
       </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="1">
+        <v>2</v>
+      </c>
+      <c r="E123" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2493,10 +3134,10 @@
       <c r="C124">
         <v>6.7</v>
       </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124">
+      <c r="D124" s="1">
+        <v>2</v>
+      </c>
+      <c r="E124" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2510,10 +3151,10 @@
       <c r="C125">
         <v>4.9</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>1.8</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2527,10 +3168,10 @@
       <c r="C126">
         <v>5.7</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>2.1</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2544,10 +3185,10 @@
       <c r="C127">
         <v>6</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>1.8</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2561,10 +3202,10 @@
       <c r="C128">
         <v>4.8</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>1.8</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2578,10 +3219,10 @@
       <c r="C129">
         <v>4.9</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>1.8</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2595,10 +3236,10 @@
       <c r="C130">
         <v>5.6</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>2.1</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2612,10 +3253,10 @@
       <c r="C131">
         <v>5.8</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>1.6</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2629,10 +3270,10 @@
       <c r="C132">
         <v>6.1</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>1.9</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2646,10 +3287,10 @@
       <c r="C133">
         <v>6.4</v>
       </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
+      <c r="D133" s="1">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2663,10 +3304,10 @@
       <c r="C134">
         <v>5.6</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>2.2</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2680,10 +3321,10 @@
       <c r="C135">
         <v>5.1</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>1.5</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2697,10 +3338,10 @@
       <c r="C136">
         <v>5.6</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>1.4</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2714,10 +3355,10 @@
       <c r="C137">
         <v>6.1</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>2.3</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2731,10 +3372,10 @@
       <c r="C138">
         <v>5.6</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>2.4</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2748,10 +3389,10 @@
       <c r="C139">
         <v>5.5</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>1.8</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2765,10 +3406,10 @@
       <c r="C140">
         <v>4.8</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>1.8</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2782,10 +3423,10 @@
       <c r="C141">
         <v>5.4</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>2.1</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2799,10 +3440,10 @@
       <c r="C142">
         <v>5.6</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>2.4</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2816,10 +3457,10 @@
       <c r="C143">
         <v>5.1</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>2.3</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2833,10 +3474,10 @@
       <c r="C144">
         <v>5.1</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>1.9</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2850,10 +3491,10 @@
       <c r="C145">
         <v>5.9</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>2.3</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2867,10 +3508,10 @@
       <c r="C146">
         <v>5.7</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>2.5</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2884,10 +3525,10 @@
       <c r="C147">
         <v>5.2</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>2.3</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2901,10 +3542,10 @@
       <c r="C148">
         <v>5</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>1.9</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2918,10 +3559,10 @@
       <c r="C149">
         <v>5.2</v>
       </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149">
+      <c r="D149" s="1">
+        <v>2</v>
+      </c>
+      <c r="E149" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2935,10 +3576,10 @@
       <c r="C150">
         <v>5.4</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>2.3</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="1">
         <v>2</v>
       </c>
     </row>
@@ -2952,14 +3593,15 @@
       <c r="C151">
         <v>5.1</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>1.8</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>